--- a/www/IndicatorsPerCountry/Niger_GDPperCapita_TerritorialRef_1960_2012_CCode_562.xlsx
+++ b/www/IndicatorsPerCountry/Niger_GDPperCapita_TerritorialRef_1960_2012_CCode_562.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Niger_GDPperCapita_TerritorialRef_1960_2012_CCode_562.xlsx
+++ b/www/IndicatorsPerCountry/Niger_GDPperCapita_TerritorialRef_1960_2012_CCode_562.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>791</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>546.945635721</t>
-  </si>
-  <si>
-    <t>544.445118772</t>
-  </si>
-  <si>
-    <t>494.183095983</t>
-  </si>
-  <si>
-    <t>486.324493191</t>
-  </si>
-  <si>
-    <t>490.459131328</t>
-  </si>
-  <si>
-    <t>443.542212305</t>
-  </si>
-  <si>
-    <t>451.065047674</t>
-  </si>
-  <si>
-    <t>439.194074488</t>
-  </si>
-  <si>
-    <t>479.291005817</t>
-  </si>
-  <si>
-    <t>468.332095454</t>
-  </si>
-  <si>
-    <t>441.226878559</t>
-  </si>
-  <si>
-    <t>460.644204185</t>
-  </si>
-  <si>
-    <t>468.693577704</t>
-  </si>
-  <si>
-    <t>484.451748686</t>
-  </si>
-  <si>
-    <t>463.688669855</t>
-  </si>
-  <si>
-    <t>484.997247954</t>
-  </si>
-  <si>
-    <t>494.912980033</t>
-  </si>
-  <si>
-    <t>492.388688196</t>
-  </si>
-  <si>
-    <t>520.716275647</t>
-  </si>
-  <si>
-    <t>498.152499792</t>
-  </si>
-  <si>
-    <t>519.46183898</t>
+    <t>983</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>865.913420964203</t>
+  </si>
+  <si>
+    <t>785.263618323698</t>
+  </si>
+  <si>
+    <t>771.541422741917</t>
+  </si>
+  <si>
+    <t>776.80252474935</t>
+  </si>
+  <si>
+    <t>702.493394445968</t>
+  </si>
+  <si>
+    <t>712.855845272195</t>
+  </si>
+  <si>
+    <t>693.10938249699</t>
+  </si>
+  <si>
+    <t>755.247969163888</t>
+  </si>
+  <si>
+    <t>736.917524763798</t>
+  </si>
+  <si>
+    <t>693.376547623471</t>
+  </si>
+  <si>
+    <t>723.311358292809</t>
+  </si>
+  <si>
+    <t>734.591580570774</t>
+  </si>
+  <si>
+    <t>758.114331368533</t>
+  </si>
+  <si>
+    <t>725.131636267338</t>
+  </si>
+  <si>
+    <t>757.243914388136</t>
+  </si>
+  <si>
+    <t>771.419659945294</t>
+  </si>
+  <si>
+    <t>766.18694338525</t>
+  </si>
+  <si>
+    <t>809.450392071507</t>
+  </si>
+  <si>
+    <t>775.253442693546</t>
+  </si>
+  <si>
+    <t>810.157252880308</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>925</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
